--- a/tool/excels/plicht.xlsx
+++ b/tool/excels/plicht.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/Projecten/ICTU/testexceltojson/excel-to-json-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/Projecten/ICTU/GitHub/discipl-law-reg/tool/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B619058-8FE2-654D-A589-D67F20993C78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB407C-9A95-454F-B154-0A2305BF1E8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>houder aanspraak</t>
   </si>
   <si>
     <t>versie (nr-vanaf-tot)</t>
-  </si>
-  <si>
-    <t>juriconnect bronverwijzing</t>
   </si>
   <si>
     <t>brontekst</t>
@@ -167,9 +164,6 @@
   </si>
   <si>
     <t>&lt;besluit berust op deugdelijke motivering&gt;</t>
-  </si>
-  <si>
-    <t>Nr</t>
   </si>
   <si>
     <t>corrigerende handeling</t>
@@ -248,39 +242,12 @@
     <t>pm</t>
   </si>
   <si>
-    <t>plichtframe.Awb.4:1.schriftelijk</t>
-  </si>
-  <si>
-    <t>plichtframe.Awb.4:1.bevoegd.bestuursorgaan</t>
-  </si>
-  <si>
-    <t>plichtframe.Awb.4:2.1</t>
-  </si>
-  <si>
-    <t>plichtframe.Awb.4:2.2</t>
-  </si>
-  <si>
-    <t>plichtframe.Awb.3:2</t>
-  </si>
-  <si>
-    <t>plichtframe.Awb.3:46</t>
-  </si>
-  <si>
-    <t>plichtframe.Awb.4:13.1</t>
-  </si>
-  <si>
-    <t>plichtframe.Awb.6:5</t>
-  </si>
-  <si>
     <t>duty</t>
   </si>
   <si>
     <t>duty-holder</t>
   </si>
   <si>
-    <t>claimer</t>
-  </si>
-  <si>
     <t>create</t>
   </si>
   <si>
@@ -291,6 +258,18 @@
   </si>
   <si>
     <t>reference</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>juriconnect</t>
+  </si>
+  <si>
+    <t>sourcetext</t>
+  </si>
+  <si>
+    <t>explanation</t>
   </si>
 </sst>
 </file>
@@ -513,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -565,12 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -867,68 +840,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="19"/>
-    <col min="2" max="3" width="30.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="30.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" style="4" customWidth="1"/>
-    <col min="9" max="11" width="25.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="50.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="50.83203125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="30.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="4" customWidth="1"/>
+    <col min="4" max="6" width="30.83203125" style="4" customWidth="1"/>
+    <col min="7" max="9" width="25.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="50.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="50.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
-      <c r="A1" s="18" t="s">
-        <v>43</v>
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68">
+      <c r="A2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="68">
-      <c r="A2" s="19">
-        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -940,36 +905,30 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="68">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="68">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -977,37 +936,31 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="68">
-      <c r="A4" s="19">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:11" ht="68">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1015,37 +968,31 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>62</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="68">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="68">
-      <c r="A5" s="19">
+      <c r="B5" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1053,175 +1000,145 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="68">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="68">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="85">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="119">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="68">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="68">
-      <c r="A7" s="19">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="85">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="119">
-      <c r="A9" s="19">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1247,10 +1164,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="21">
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1263,16 +1180,16 @@
     </row>
     <row r="5" spans="2:6" ht="18" thickBot="1">
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="17" thickBot="1">
@@ -1281,14 +1198,14 @@
     </row>
     <row r="7" spans="2:6" ht="18" thickTop="1">
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>VLOOKUP(C5,Plichtframe!B2:M997,1,FALSE)</f>
+        <f>VLOOKUP(C5,Plichtframe!A2:K997,1,FALSE)</f>
         <v>&lt;schriftelijk indienen aanvraag&gt;</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="10" t="e">
         <f>VLOOKUP(F5,Plichtframe!#REF!,1,FALSE)</f>
@@ -1297,14 +1214,14 @@
     </row>
     <row r="8" spans="2:6" ht="17">
       <c r="B8" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="12" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,2,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,2,FALSE))</f>
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,2,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,2,FALSE))</f>
         <v>[aanvrager]</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="12" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,2,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,2,FALSE))</f>
@@ -1316,11 +1233,11 @@
         <v>0</v>
       </c>
       <c r="C9" s="12" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,3,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,3,FALSE))</f>
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,3,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,3,FALSE))</f>
         <v>[bestuursorgaan]</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="12" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,3,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,3,FALSE))</f>
@@ -1329,14 +1246,14 @@
     </row>
     <row r="10" spans="2:6" ht="17">
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="12" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,4,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,4,FALSE))</f>
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,4,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,4,FALSE))</f>
         <v>&lt;&lt;indienen aanvraag&gt;&gt;</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="12" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,4,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,4,FALSE))</f>
@@ -1344,31 +1261,31 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="17">
-      <c r="B11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="21" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,5,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,5,FALSE))</f>
+      <c r="B11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="19" t="str">
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,5,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,5,FALSE))</f>
         <v>&lt;&lt;besluiten de aanvraag niet te behandelen&gt;&gt;</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="21" t="e">
+      <c r="E11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="19" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,5,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,5,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" thickBot="1">
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="14" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,6,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,6,FALSE))</f>
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,6,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,6,FALSE))</f>
         <v>&lt;&lt;bekendmaken besluit&gt;&gt;</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="14" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,6,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,6,FALSE))</f>
@@ -1377,88 +1294,88 @@
     </row>
     <row r="13" spans="2:6" ht="18" thickTop="1">
       <c r="B13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="16"/>
       <c r="E13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6" ht="17">
-      <c r="B14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="22" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,7,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,7,FALSE))</f>
-        <v>plichtframe.Awb.4:1.schriftelijk</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="22" t="e">
+      <c r="B14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,7,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,7,FALSE))</f>
+        <v>art. 4:1 Awb</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="20" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,7,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,7,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="17">
-      <c r="B15" s="23" t="s">
-        <v>48</v>
+      <c r="B15" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="17" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,8,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,8,FALSE))</f>
-        <v>art. 4:1 Awb</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>51</v>
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,8,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,8,FALSE))</f>
+        <v>2-[19940101]-[jjjjmmdd]</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="17" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,8,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,8,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="17">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:6" ht="51">
+      <c r="B16" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="17" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,9,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,9,FALSE))</f>
-        <v>2-[19940101]-[jjjjmmdd]</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>33</v>
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,9,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,9,FALSE))</f>
+        <v>jci1.3:c:BWBR0005537&amp;hoofdstuk=4&amp;titeldeel=4.1&amp;afdeling=4.1.1&amp;artikel=4:1&amp;z=2017-03-10&amp;g=2017-03-10</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="F16" s="17" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,9,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,9,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="51">
-      <c r="B17" s="23" t="s">
-        <v>49</v>
+    <row r="17" spans="2:6" ht="68">
+      <c r="B17" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="17" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,10,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,10,FALSE))</f>
-        <v>jci1.3:c:BWBR0005537&amp;hoofdstuk=4&amp;titeldeel=4.1&amp;afdeling=4.1.1&amp;artikel=4:1&amp;z=2017-03-10&amp;g=2017-03-10</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>34</v>
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,10,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,10,FALSE))</f>
+        <v>{Tenzij bij wettelijk voorschrift anders is bepaald, wordt de aanvraag tot het geven van een beschikking schriftelijk ingediend bij het bestuursorgaan dat bevoegd is op de aanvraag te beslissen.}</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="17" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,10,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,10,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="68">
-      <c r="B18" s="23" t="s">
-        <v>3</v>
+    <row r="18" spans="2:6" ht="17">
+      <c r="B18" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="17" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,11,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,11,FALSE))</f>
-        <v>{Tenzij bij wettelijk voorschrift anders is bepaald, wordt de aanvraag tot het geven van een beschikking schriftelijk ingediend bij het bestuursorgaan dat bevoegd is op de aanvraag te beslissen.}</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>35</v>
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,11,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,11,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="17" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,11,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,11,FALSE))</f>
@@ -1466,15 +1383,15 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="17">
-      <c r="B19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="17" t="str">
-        <f>IF((VLOOKUP(C5,Plichtframe!B2:M997,12,FALSE))="","",VLOOKUP(C5,Plichtframe!B2:M997,12,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>59</v>
+      <c r="B19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="17" t="e">
+        <f>IF((VLOOKUP(C5,Plichtframe!A2:K997,12,FALSE))="","",VLOOKUP(C5,Plichtframe!A2:K997,12,FALSE))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="17" t="e">
         <f>IF((VLOOKUP(F5,Plichtframe!#REF!,12,FALSE))="","",VLOOKUP(F5,Plichtframe!#REF!,12,FALSE))</f>
